--- a/report/ml_perform_final_non_chain.xlsx
+++ b/report/ml_perform_final_non_chain.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A63B475-431D-4760-8E0D-1AD972D41184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B08F811-E89F-43A1-9660-C280A50D2A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7980" yWindow="-15375" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId5"/>
+    <pivotCache cacheId="40" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA7A30F-3BCC-41BB-B25D-3C8D1ED2917F}" name="PivotTable21" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DA7A30F-3BCC-41BB-B25D-3C8D1ED2917F}" name="PivotTable21" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -435,7 +435,7 @@
     <dataField name="Sum of mae" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -443,7 +443,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -475,7 +475,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -483,7 +483,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D75372F7-96AE-4DB5-868E-A53BE78FCE8B}" name="PivotTable22" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D75372F7-96AE-4DB5-868E-A53BE78FCE8B}" name="PivotTable22" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -578,7 +578,7 @@
     <dataField name="Sum of mse" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -586,7 +586,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -618,7 +618,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -626,7 +626,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71D3FE5E-901A-4348-8CB4-6A50FD3742AA}" name="PivotTable23" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71D3FE5E-901A-4348-8CB4-6A50FD3742AA}" name="PivotTable23" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -721,7 +721,7 @@
     <dataField name="Sum of pearson" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -729,7 +729,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -761,7 +761,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -769,7 +769,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,6 +1277,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1452,7 +1453,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,6 +1612,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
